--- a/Document/Document.xlsx
+++ b/Document/Document.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="UserTable" sheetId="1" r:id="rId1"/>
+    <sheet name="AccountTable" sheetId="1" r:id="rId1"/>
     <sheet name="DepositTable" sheetId="2" r:id="rId2"/>
     <sheet name="PostTable" sheetId="3" r:id="rId3"/>
     <sheet name="PageTable" sheetId="4" r:id="rId4"/>
     <sheet name="CommentTable" sheetId="5" r:id="rId5"/>
+    <sheet name="WithdrawTable" sheetId="6" r:id="rId6"/>
+    <sheet name="CategoryTable" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -353,17 +355,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -375,35 +423,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
